--- a/biology/Zoologie/Cepheidae/Cepheidae.xlsx
+++ b/biology/Zoologie/Cepheidae/Cepheidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cepheidae forment une famille de méduses appartenant à l'ordre Rhizostomeae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont de grosses méduses tropicales, inoffensives. Elles sont pourvues d'une grande ombrelle charnue (à laquelle elles doivent leur nom anglais de « crown jellies »), et de bras oraux épais et complexes. L'ombrelle est caractérisée dans cette famille par une importante dépression centrale, d'où émerge généralement un dôme marqué par des protubérances, caractéristiques des différents genres[1].
-Les principaux genres se distinguent ainsi, selon Gul, Moazzam &amp; Morandini 2015[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce sont de grosses méduses tropicales, inoffensives. Elles sont pourvues d'une grande ombrelle charnue (à laquelle elles doivent leur nom anglais de « crown jellies »), et de bras oraux épais et complexes. L'ombrelle est caractérisée dans cette famille par une importante dépression centrale, d'où émerge généralement un dôme marqué par des protubérances, caractéristiques des différents genres.
+Les principaux genres se distinguent ainsi, selon Gul, Moazzam &amp; Morandini 2015 : 
 Marivagia : Absence de dôme central sur l'ombrelle
 Cotylorhiza : dôme central lisse, bras buccaux équipés de petites ventouses au bout de tentacules
 Cephea : dôme central portant des protubérances, plus de 3 canaux inter-rhopalaires par octant, bras buccaux portant de longs filaments
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2015) :
 genre Cephea Péron et Lesueur, 1809 — 2 espèces
 genre Cotylorhiza L. Agassiz, 1862 — 3 espèces
 genre Marivagia Galil &amp; Gershwin, 2010 — 1 espèce
